--- a/Ethanol/AVE_MOL_FRAC.xlsx
+++ b/Ethanol/AVE_MOL_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFF2C498-BD91-4F8A-9C5E-E74BF540769C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D646DE86-1FCA-4535-BA2B-9A76EB63E618}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="4095" windowWidth="18900" windowHeight="11055" xr2:uid="{59DFDDAA-4C84-4C4A-9A0E-28C15EAC55C7}"/>
+    <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{59DFDDAA-4C84-4C4A-9A0E-28C15EAC55C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,19 +610,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4.3322778159001291E-2</v>
+        <v>4.5050103048987773E-2</v>
       </c>
       <c r="C2">
-        <v>2.8943476530871471E-2</v>
+        <v>3.0097483488389875E-2</v>
       </c>
       <c r="D2">
-        <v>0.16168856640350215</v>
+        <v>0.16133358387435662</v>
       </c>
       <c r="E2">
-        <v>4.5809633369937909E-3</v>
+        <v>4.7636111801922041E-3</v>
       </c>
       <c r="F2">
-        <v>1.6858360106129965E-2</v>
+        <v>1.7530520716624497E-2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -631,34 +631,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.41898744869500487</v>
+        <v>0.43569292049246489</v>
       </c>
       <c r="J2">
-        <v>0.20351654798671601</v>
+        <v>0.2116309675553637</v>
       </c>
       <c r="K2">
-        <v>9.5201764128459813E-3</v>
+        <v>9.8997558944438017E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.5228318003925731E-2</v>
+        <v>4.7031618778720856E-2</v>
       </c>
       <c r="N2">
-        <v>2.4777107066057277E-2</v>
+        <v>2.6196688591129072E-2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>3.2541982697542222E-2</v>
+        <v>3.3839465893949265E-4</v>
       </c>
       <c r="Q2">
-        <v>6.5692153630970908E-4</v>
+        <v>6.831136913065869E-4</v>
       </c>
       <c r="R2">
-        <v>9.3773530650994308E-3</v>
+        <v>9.7512380290804817E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.7494281929945301E-2</v>
+        <v>4.9832486704297935E-2</v>
       </c>
       <c r="C3">
-        <v>3.3870638753699833E-2</v>
+        <v>3.5538133997887127E-2</v>
       </c>
       <c r="D3">
-        <v>0.16587233241693541</v>
+        <v>0.16294720773920246</v>
       </c>
       <c r="E3">
-        <v>5.3002257249317652E-3</v>
+        <v>5.5611626754779805E-3</v>
       </c>
       <c r="F3">
-        <v>2.0028630694873331E-2</v>
+        <v>2.1014666024001476E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4891515889843257</v>
+        <v>0.51323315279094039</v>
       </c>
       <c r="J3">
-        <v>0.11234255322188022</v>
+        <v>0.11787332205619636</v>
       </c>
       <c r="K3">
-        <v>4.270273607440569E-3</v>
+        <v>4.4805046864457689E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.0617819390020892E-2</v>
+        <v>5.3109799943377632E-2</v>
       </c>
       <c r="N3">
-        <v>2.3528870972377273E-2</v>
+        <v>2.5076763957009317E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>3.7092661106542454E-2</v>
+        <v>3.8918780668065466E-4</v>
       </c>
       <c r="Q3">
-        <v>5.766437507290275E-4</v>
+        <v>6.0503266653670303E-4</v>
       </c>
       <c r="R3">
-        <v>9.8534794462982189E-3</v>
+        <v>1.0338578951946153E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.1927241052073525E-2</v>
+        <v>5.4432912068347147E-2</v>
       </c>
       <c r="C4">
-        <v>3.0831484028914346E-2</v>
+        <v>3.2319210978291123E-2</v>
       </c>
       <c r="D4">
-        <v>0.17479231085505864</v>
+        <v>0.17047414878265324</v>
       </c>
       <c r="E4">
-        <v>5.8778266625944733E-3</v>
+        <v>6.1614523590256378E-3</v>
       </c>
       <c r="F4">
-        <v>2.384762994217236E-2</v>
+        <v>2.4998361503146257E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.54026114339231635</v>
+        <v>0.56633063333227762</v>
       </c>
       <c r="J4">
-        <v>4.7134666234632833E-2</v>
+        <v>4.9409078752089976E-2</v>
       </c>
       <c r="K4">
-        <v>7.5086579664671886E-3</v>
+        <v>7.870976977770363E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.1366380828370008E-2</v>
+        <v>5.3844988377025449E-2</v>
       </c>
       <c r="N4">
-        <v>2.2265757060653514E-2</v>
+        <v>2.3684603837400797E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3.4540802168401483E-2</v>
+        <v>3.6207516692776323E-4</v>
       </c>
       <c r="Q4">
-        <v>5.1400863548528954E-4</v>
+        <v>5.3881135009048648E-4</v>
       </c>
       <c r="R4">
-        <v>9.1320911728600667E-3</v>
+        <v>9.5727465149541557E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.0629375088227353E-2</v>
+        <v>5.2645905653070965E-2</v>
       </c>
       <c r="C5">
-        <v>2.2656195503358682E-2</v>
+        <v>2.3558575013988243E-2</v>
       </c>
       <c r="D5">
-        <v>0.17324988918809206</v>
+        <v>0.16604247573877257</v>
       </c>
       <c r="E5">
-        <v>6.4794011098609269E-3</v>
+        <v>6.7374708639739763E-3</v>
       </c>
       <c r="F5">
-        <v>3.8656024320402174E-2</v>
+        <v>4.0195665179519842E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.59074519617753474</v>
+        <v>0.61427414043273521</v>
       </c>
       <c r="J5">
-        <v>3.0757791050819178E-2</v>
+        <v>3.1982851120254487E-2</v>
       </c>
       <c r="K5">
-        <v>2.7313798059225821E-3</v>
+        <v>2.8401686434944727E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.9370257014817833E-2</v>
+        <v>4.0938345233915555E-2</v>
       </c>
       <c r="N5">
-        <v>1.3272760957739129E-2</v>
+        <v>1.3918900572513361E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.5100204073348332E-2</v>
+        <v>2.609992663775913E-4</v>
       </c>
       <c r="Q5">
-        <v>3.1599795749857315E-4</v>
+        <v>3.2858392243718043E-4</v>
       </c>
       <c r="R5">
-        <v>6.0355277523782428E-3</v>
+        <v>6.2759183589465367E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.5514019032976388E-2</v>
+        <v>4.7335103822576358E-2</v>
       </c>
       <c r="C6">
-        <v>1.8047143559799177E-2</v>
+        <v>1.8769237089018502E-2</v>
       </c>
       <c r="D6">
-        <v>0.14864448923521589</v>
+        <v>0.12801974556919912</v>
       </c>
       <c r="E6">
-        <v>6.9987408565358299E-3</v>
+        <v>7.2787710712034224E-3</v>
       </c>
       <c r="F6">
-        <v>5.6376298783287732E-2</v>
+        <v>5.8631999826384007E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6403351849085176</v>
+        <v>0.66595596484090958</v>
       </c>
       <c r="J6">
-        <v>2.3898481972621073E-2</v>
+        <v>2.4854696408075274E-2</v>
       </c>
       <c r="K6">
-        <v>1.5503481842822271E-3</v>
+        <v>1.6123799616766759E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.2325258767755667E-2</v>
+        <v>3.3618641297195481E-2</v>
       </c>
       <c r="N6">
-        <v>8.7529396865584502E-3</v>
+        <v>9.1023491603069752E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.3051982548671967E-2</v>
+        <v>1.357421212537205E-4</v>
       </c>
       <c r="Q6">
-        <v>2.5176571224754972E-4</v>
+        <v>2.6183923945648788E-4</v>
       </c>
       <c r="R6">
-        <v>4.2533467515303205E-3</v>
+        <v>4.4235295927444592E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>3.6520044327033346E-2</v>
+        <v>3.8256622027600266E-2</v>
       </c>
       <c r="C7">
-        <v>5.7539400787757766E-3</v>
+        <v>6.0275477431510306E-3</v>
       </c>
       <c r="D7">
-        <v>0.10836895402389034</v>
+        <v>6.6113938615677187E-2</v>
       </c>
       <c r="E7">
-        <v>7.8048468753830281E-3</v>
+        <v>8.1759779429895572E-3</v>
       </c>
       <c r="F7">
-        <v>0.10235029255530546</v>
+        <v>0.10721718795407353</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.71227222727850348</v>
+        <v>0.74614173892390367</v>
       </c>
       <c r="J7">
-        <v>8.3853797531083761E-3</v>
+        <v>8.78411594739208E-3</v>
       </c>
       <c r="K7">
-        <v>2.3994370737099338E-4</v>
+        <v>2.5135335649081609E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.3329756430140874E-2</v>
+        <v>1.3963604449690954E-2</v>
       </c>
       <c r="N7">
-        <v>3.4809959488902088E-3</v>
+        <v>3.5032704046784862E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.1599977204556543E-4</v>
+        <v>1.2151571872956387E-4</v>
       </c>
       <c r="R7">
-        <v>1.3776192495525913E-3</v>
+        <v>1.4431269156228068E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.3202677877998028E-2</v>
+        <v>3.5012530390901304E-2</v>
       </c>
       <c r="C8">
-        <v>2.3080401566829539E-3</v>
+        <v>2.4338496559288673E-3</v>
       </c>
       <c r="D8">
-        <v>9.3879865261362619E-2</v>
+        <v>4.468400680344857E-2</v>
       </c>
       <c r="E8">
-        <v>7.9732847586195168E-3</v>
+        <v>8.4079023972782139E-3</v>
       </c>
       <c r="F8">
-        <v>0.12017801999245549</v>
+        <v>0.12672883171548269</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,22 +967,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7320402903359885</v>
+        <v>0.77194324526869817</v>
       </c>
       <c r="J8">
-        <v>2.8307538652026826E-3</v>
+        <v>2.985056087908119E-3</v>
       </c>
       <c r="K8">
-        <v>3.0452041841486269E-5</v>
+        <v>3.2111959293095526E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.6764740290140879E-3</v>
+        <v>5.9858942758866801E-3</v>
       </c>
       <c r="N8">
-        <v>1.4842318206299615E-3</v>
+        <v>1.369080842054713E-3</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.3442160411527981E-5</v>
+        <v>1.4174882268754267E-5</v>
       </c>
       <c r="R8">
-        <v>3.824676997930506E-4</v>
+        <v>4.033157208508185E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.0238073626607095E-2</v>
+        <v>2.1434310514586292E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.5207223623316203E-2</v>
+        <v>3.113543378063096E-2</v>
       </c>
       <c r="E9">
-        <v>8.0126311668187126E-3</v>
+        <v>8.4862436829288863E-3</v>
       </c>
       <c r="F9">
-        <v>0.14968958935437177</v>
+        <v>0.15853747734192908</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.73606959263419203</v>
+        <v>0.77957736986014414</v>
       </c>
       <c r="J9">
-        <v>3.3578509415938031E-5</v>
+        <v>3.5563275967725497E-5</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.9778901152578395E-4</v>
+        <v>6.3312326714760458E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.515220737524256E-4</v>
+        <v>1.6047827666530842E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1058,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.2129978601351343E-2</v>
+        <v>1.2865419634576132E-2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.109748846199169E-2</v>
+        <v>2.5384396565598818E-2</v>
       </c>
       <c r="E10">
-        <v>7.9892441064800777E-3</v>
+        <v>8.4736322602811213E-3</v>
       </c>
       <c r="F10">
-        <v>0.16546009064613518</v>
+        <v>0.17549194181598837</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.73332319818404179</v>
+        <v>0.77778460972355556</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1202,19 +1202,19 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.2599641765947013E-3</v>
+        <v>2.6846788474122665E-3</v>
       </c>
       <c r="C2">
-        <v>3.2339825816340598E-3</v>
+        <v>3.4729241857864436E-3</v>
       </c>
       <c r="D2">
-        <v>2.4387531920251813E-2</v>
+        <v>3.4212755889661453E-2</v>
       </c>
       <c r="E2">
-        <v>5.1269353590779974E-4</v>
+        <v>5.505173625935815E-4</v>
       </c>
       <c r="F2">
-        <v>6.6381166586299721E-3</v>
+        <v>6.9212388095326307E-3</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.3225356648855323E-2</v>
+        <v>4.6668702826604402E-2</v>
       </c>
       <c r="J2">
-        <v>9.9301639392138583E-2</v>
+        <v>0.10344076135527602</v>
       </c>
       <c r="K2">
-        <v>6.5939030436754195E-4</v>
+        <v>7.4263773485190555E-4</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.6766074013222976E-3</v>
+        <v>3.0956469873137846E-3</v>
       </c>
       <c r="N2">
-        <v>4.2704855624407173E-3</v>
+        <v>4.606114023161096E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1.9125993252734761E-2</v>
+        <v>1.9912449020384856E-4</v>
       </c>
       <c r="Q2">
-        <v>4.208610652554887E-5</v>
+        <v>4.7985961758203522E-5</v>
       </c>
       <c r="R2">
-        <v>1.2265328355988002E-3</v>
+        <v>1.3060118206477777E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,19 +1258,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.0127575660765507E-3</v>
+        <v>4.2951029060746861E-3</v>
       </c>
       <c r="C3">
-        <v>6.8216443775240589E-3</v>
+        <v>7.1830597202286817E-3</v>
       </c>
       <c r="D3">
-        <v>2.462084190087566E-2</v>
+        <v>3.4582880599827566E-2</v>
       </c>
       <c r="E3">
-        <v>4.7712284377500496E-4</v>
+        <v>5.0950393408013682E-4</v>
       </c>
       <c r="F3">
-        <v>1.6056682504171877E-2</v>
+        <v>1.6850979663111144E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1279,34 +1279,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.4528039018230929E-2</v>
+        <v>4.7531853402077801E-2</v>
       </c>
       <c r="J3">
-        <v>4.9578148039050342E-2</v>
+        <v>5.2057714914164499E-2</v>
       </c>
       <c r="K3">
-        <v>9.232751832009442E-4</v>
+        <v>9.7173372593530331E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.0769739295383824E-2</v>
+        <v>1.1336136223303312E-2</v>
       </c>
       <c r="N3">
-        <v>6.2604120229947562E-3</v>
+        <v>6.7371886466546915E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.7155162447084139E-2</v>
+        <v>1.8011948433390625E-4</v>
       </c>
       <c r="Q3">
-        <v>1.7453424558336463E-4</v>
+        <v>1.8341683156093957E-4</v>
       </c>
       <c r="R3">
-        <v>2.6387011749767187E-3</v>
+        <v>2.7742082115878096E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.9741613412155162E-3</v>
+        <v>2.364316791190113E-3</v>
       </c>
       <c r="C4">
-        <v>1.5601128072818093E-3</v>
+        <v>1.7707184669110072E-3</v>
       </c>
       <c r="D4">
-        <v>2.9187774580383734E-2</v>
+        <v>4.1363327187988103E-2</v>
       </c>
       <c r="E4">
-        <v>2.5255111334923592E-4</v>
+        <v>2.946837960344363E-4</v>
       </c>
       <c r="F4">
-        <v>9.6303711392682774E-4</v>
+        <v>1.1379229218013254E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1335,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.9182776560383523E-2</v>
+        <v>2.3364081738499534E-2</v>
       </c>
       <c r="J4">
-        <v>6.9313101991713144E-3</v>
+        <v>7.3395296246257687E-3</v>
       </c>
       <c r="K4">
-        <v>1.2355665599237944E-3</v>
+        <v>1.3056981327135451E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.9831195802721348E-3</v>
+        <v>2.3666128458489175E-3</v>
       </c>
       <c r="N4">
-        <v>1.8437976436673123E-3</v>
+        <v>2.0379021468050159E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.7490565816678717E-2</v>
+        <v>1.8350316564617845E-4</v>
       </c>
       <c r="Q4">
-        <v>3.5631942249052984E-5</v>
+        <v>3.9028601516393796E-5</v>
       </c>
       <c r="R4">
-        <v>5.3363206513523946E-4</v>
+        <v>5.9442887839478782E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,19 +1370,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.7978945219750361E-3</v>
+        <v>2.1007791606387446E-3</v>
       </c>
       <c r="C5">
-        <v>4.2417449674444435E-3</v>
+        <v>4.4314856472968426E-3</v>
       </c>
       <c r="D5">
-        <v>2.5505350339632037E-2</v>
+        <v>3.5475585938842154E-2</v>
       </c>
       <c r="E5">
-        <v>4.0355020252790821E-4</v>
+        <v>4.3717573979317137E-4</v>
       </c>
       <c r="F5">
-        <v>1.2082193581879966E-2</v>
+        <v>1.2584703498831014E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1391,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.2352006254793203E-2</v>
+        <v>3.5449937718225945E-2</v>
       </c>
       <c r="J5">
-        <v>6.9774553376868373E-3</v>
+        <v>7.2786791021708999E-3</v>
       </c>
       <c r="K5">
-        <v>6.0919726653508991E-4</v>
+        <v>6.3556705132348037E-4</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.983307992923223E-3</v>
+        <v>7.2995801082303248E-3</v>
       </c>
       <c r="N5">
-        <v>1.1818129624173836E-3</v>
+        <v>1.2815006196108198E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.186186500784445E-2</v>
+        <v>1.2343459556925666E-4</v>
       </c>
       <c r="Q5">
-        <v>3.3317092090198233E-5</v>
+        <v>3.515654222611185E-5</v>
       </c>
       <c r="R5">
-        <v>1.2606535246043923E-3</v>
+        <v>1.315832256399392E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,19 +1426,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.0837434746347655E-3</v>
+        <v>7.3984365363854408E-3</v>
       </c>
       <c r="C6">
-        <v>1.4312631507203341E-2</v>
+        <v>1.4887739189617541E-2</v>
       </c>
       <c r="D6">
-        <v>1.914553550564229E-2</v>
+        <v>2.4494645876114982E-2</v>
       </c>
       <c r="E6">
-        <v>4.6160763369088368E-4</v>
+        <v>4.9131347820255335E-4</v>
       </c>
       <c r="F6">
-        <v>3.8017990104943972E-2</v>
+        <v>3.9548102340544906E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1447,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.1883706450492761E-2</v>
+        <v>4.4595966604910178E-2</v>
       </c>
       <c r="J6">
-        <v>1.8608644310816592E-2</v>
+        <v>1.9356492059310851E-2</v>
       </c>
       <c r="K6">
-        <v>1.9565528702623469E-3</v>
+        <v>2.0349691129752804E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.1682966793484127E-2</v>
+        <v>2.2555697160880048E-2</v>
       </c>
       <c r="N6">
-        <v>4.6944335855625755E-3</v>
+        <v>4.9996953633102328E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>9.7608472467185098E-3</v>
+        <v>1.015326304615095E-4</v>
       </c>
       <c r="Q6">
-        <v>4.7561677129394867E-5</v>
+        <v>4.9607258155313906E-5</v>
       </c>
       <c r="R6">
-        <v>3.4540991945661991E-3</v>
+        <v>3.5928639783291351E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,19 +1482,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>7.9082622005281402E-3</v>
+        <v>8.3180835310366283E-3</v>
       </c>
       <c r="C7">
-        <v>3.5173693508821196E-3</v>
+        <v>3.686513337069171E-3</v>
       </c>
       <c r="D7">
-        <v>4.4261868958163537E-2</v>
+        <v>6.2173893765816966E-2</v>
       </c>
       <c r="E7">
-        <v>3.2731073362277476E-4</v>
+        <v>3.7838174192790752E-4</v>
       </c>
       <c r="F7">
-        <v>2.0714647484343023E-2</v>
+        <v>2.1800898374329809E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1503,22 +1503,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.4622091358536716E-2</v>
+        <v>2.9640544401761618E-2</v>
       </c>
       <c r="J7">
-        <v>4.4676241446722159E-3</v>
+        <v>4.6832228610134479E-3</v>
       </c>
       <c r="K7">
-        <v>1.5950795188475201E-4</v>
+        <v>1.6716518371182333E-4</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>5.8981811096896443E-3</v>
+        <v>6.1846896616995798E-3</v>
       </c>
       <c r="N7">
-        <v>1.3480933136993957E-3</v>
+        <v>1.4470035593984623E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.4462099765916994E-5</v>
+        <v>2.5735448877634356E-5</v>
       </c>
       <c r="R7">
-        <v>6.7398769568322091E-4</v>
+        <v>7.0660153493083146E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,19 +1538,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.0328102440926793E-3</v>
+        <v>1.0606317671467877E-3</v>
       </c>
       <c r="C8">
-        <v>5.9535443585728611E-4</v>
+        <v>6.2757111808056567E-4</v>
       </c>
       <c r="D8">
-        <v>1.3366317958708242E-2</v>
+        <v>1.048936536280458E-2</v>
       </c>
       <c r="E8">
-        <v>2.9363955673234891E-4</v>
+        <v>3.0389182428593701E-4</v>
       </c>
       <c r="F8">
-        <v>6.8954744866911027E-3</v>
+        <v>7.2159831623878025E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.0056752597863343E-2</v>
+        <v>2.0434447892462029E-2</v>
       </c>
       <c r="J8">
-        <v>9.9907287998894146E-4</v>
+        <v>1.0533203778333154E-3</v>
       </c>
       <c r="K8">
-        <v>1.363422319668987E-5</v>
+        <v>1.4375623353112912E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.5078759224309735E-3</v>
+        <v>1.5895063406632301E-3</v>
       </c>
       <c r="N8">
-        <v>4.2613201731794164E-4</v>
+        <v>4.5965684450020167E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.6897089980449883E-5</v>
+        <v>2.8363052853369152E-5</v>
       </c>
       <c r="R8">
-        <v>1.310242958620299E-4</v>
+        <v>1.3813693129350856E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.7703539798360382E-3</v>
+        <v>1.8686595242266306E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.2268440687165838E-2</v>
+        <v>5.9423633422180256E-3</v>
       </c>
       <c r="E9">
-        <v>5.1234230428090824E-4</v>
+        <v>5.3918850725683204E-4</v>
       </c>
       <c r="F9">
-        <v>8.1108347303642022E-3</v>
+        <v>8.5143752211661317E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.8304401599142224E-2</v>
+        <v>4.0179871703887364E-2</v>
       </c>
       <c r="J9">
-        <v>6.8869766961945046E-6</v>
+        <v>7.2895756377402891E-6</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.0729554116182893E-5</v>
+        <v>4.2896422028955027E-5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3.0324478644237161E-4</v>
+        <v>3.211669814066993E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1650,19 +1650,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.1287765372404374E-3</v>
+        <v>1.1905855309918014E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.1946399944960079E-2</v>
+        <v>4.8205536579179337E-3</v>
       </c>
       <c r="E10">
-        <v>3.5933935462603516E-4</v>
+        <v>3.7200917368034189E-4</v>
       </c>
       <c r="F10">
-        <v>3.8652517732622803E-3</v>
+        <v>3.7231246423760846E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.0511470320095464E-2</v>
+        <v>2.0382193675727443E-2</v>
       </c>
       <c r="J10">
         <v>0</v>

--- a/Ethanol/AVE_MOL_FRAC.xlsx
+++ b/Ethanol/AVE_MOL_FRAC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Ethanol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D646DE86-1FCA-4535-BA2B-9A76EB63E618}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5C63B16-EFC3-4059-91B1-C26518BC29ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="-13050" windowWidth="16200" windowHeight="11055" xr2:uid="{59DFDDAA-4C84-4C4A-9A0E-28C15EAC55C7}"/>
   </bookViews>
@@ -666,19 +666,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.9832486704297935E-2</v>
+        <v>5.0290917899728692E-2</v>
       </c>
       <c r="C3">
-        <v>3.5538133997887127E-2</v>
+        <v>3.5865065089018586E-2</v>
       </c>
       <c r="D3">
-        <v>0.16294720773920246</v>
+        <v>0.16444623153224033</v>
       </c>
       <c r="E3">
-        <v>5.5611626754779805E-3</v>
+        <v>5.6123222828327627E-3</v>
       </c>
       <c r="F3">
-        <v>2.1014666024001476E-2</v>
+        <v>2.1207989277647783E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -687,34 +687,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.51323315279094039</v>
+        <v>0.5179546126924861</v>
       </c>
       <c r="J3">
-        <v>0.11787332205619636</v>
+        <v>0.105751627941985</v>
       </c>
       <c r="K3">
-        <v>4.4805046864457689E-3</v>
+        <v>8.5283415444649003E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>5.3109799943377632E-2</v>
+        <v>5.3598380600040532E-2</v>
       </c>
       <c r="N3">
-        <v>2.5076763957009317E-2</v>
+        <v>2.5307456255119241E-2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>3.8918780668065466E-4</v>
+        <v>3.927681183059282E-4</v>
       </c>
       <c r="Q3">
-        <v>6.0503266653670303E-4</v>
+        <v>6.1059863096952279E-4</v>
       </c>
       <c r="R3">
-        <v>1.0338578951946153E-2</v>
+        <v>1.0433688135160709E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,19 +722,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.4432912068347147E-2</v>
+        <v>5.4642243282474655E-2</v>
       </c>
       <c r="C4">
-        <v>3.2319210978291123E-2</v>
+        <v>3.2443500115444647E-2</v>
       </c>
       <c r="D4">
-        <v>0.17047414878265324</v>
+        <v>0.17112973671991477</v>
       </c>
       <c r="E4">
-        <v>6.1614523590256378E-3</v>
+        <v>6.1851472938379464E-3</v>
       </c>
       <c r="F4">
-        <v>2.4998361503146257E-2</v>
+        <v>2.5094497042580217E-2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -743,34 +743,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.56633063333227762</v>
+        <v>0.56850855611039741</v>
       </c>
       <c r="J4">
-        <v>4.9409078752089976E-2</v>
+        <v>3.9214774328129302E-2</v>
       </c>
       <c r="K4">
-        <v>7.870976977770363E-3</v>
+        <v>1.4439888178812876E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>5.3844988377025449E-2</v>
+        <v>5.4052058628521298E-2</v>
       </c>
       <c r="N4">
-        <v>2.3684603837400797E-2</v>
+        <v>2.3775687093633473E-2</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3.6207516692776323E-4</v>
+        <v>3.6346758984651573E-4</v>
       </c>
       <c r="Q4">
-        <v>5.3881135009048648E-4</v>
+        <v>5.4088344268693803E-4</v>
       </c>
       <c r="R4">
-        <v>9.5727465149541557E-3</v>
+        <v>9.6095601737199061E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,19 +778,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.2645905653070965E-2</v>
+        <v>5.347608064504128E-2</v>
       </c>
       <c r="C5">
-        <v>2.3558575013988243E-2</v>
+        <v>2.3930070946681519E-2</v>
       </c>
       <c r="D5">
-        <v>0.16604247573877257</v>
+        <v>0.16866080491847252</v>
       </c>
       <c r="E5">
-        <v>6.7374708639739763E-3</v>
+        <v>6.8437142603219982E-3</v>
       </c>
       <c r="F5">
-        <v>4.0195665179519842E-2</v>
+        <v>4.0829511926075014E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -799,34 +799,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.61427414043273521</v>
+        <v>0.62387364575080673</v>
       </c>
       <c r="J5">
-        <v>3.1982851120254487E-2</v>
+        <v>9.5908570386082775E-3</v>
       </c>
       <c r="K5">
-        <v>2.8401686434944727E-3</v>
+        <v>1.0099259156957675E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>4.0938345233915555E-2</v>
+        <v>4.1583903326311317E-2</v>
       </c>
       <c r="N5">
-        <v>1.3918900572513361E-2</v>
+        <v>1.4138388166613622E-2</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>2.609992663775913E-4</v>
+        <v>2.6511497226547424E-4</v>
       </c>
       <c r="Q5">
-        <v>3.2858392243718043E-4</v>
+        <v>3.3376537295620945E-4</v>
       </c>
       <c r="R5">
-        <v>6.2759183589465367E-3</v>
+        <v>6.3748835188884821E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,19 +834,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>4.7335103822576358E-2</v>
+        <v>4.7988584357528889E-2</v>
       </c>
       <c r="C6">
-        <v>1.8769237089018502E-2</v>
+        <v>1.9028354110068167E-2</v>
       </c>
       <c r="D6">
-        <v>0.12801974556919912</v>
+        <v>0.12978711069704629</v>
       </c>
       <c r="E6">
-        <v>7.2787710712034224E-3</v>
+        <v>7.3792574931036614E-3</v>
       </c>
       <c r="F6">
-        <v>5.8631999826384007E-2</v>
+        <v>5.9441438647000008E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -855,34 +855,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.66595596484090958</v>
+        <v>0.67514976024886431</v>
       </c>
       <c r="J6">
-        <v>2.4854696408075274E-2</v>
+        <v>5.4014674426064446E-3</v>
       </c>
       <c r="K6">
-        <v>1.6123799616766759E-3</v>
+        <v>7.6255873712115689E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.3618641297195481E-2</v>
+        <v>3.4082760437645965E-2</v>
       </c>
       <c r="N6">
-        <v>9.1023491603069752E-3</v>
+        <v>9.2280108261374224E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.357421212537205E-4</v>
+        <v>1.3761609694721343E-4</v>
       </c>
       <c r="Q6">
-        <v>2.6183923945648788E-4</v>
+        <v>2.6545403761797366E-4</v>
       </c>
       <c r="R6">
-        <v>4.4235295927444592E-3</v>
+        <v>4.4845982342220404E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,19 +890,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>3.8256622027600266E-2</v>
+        <v>3.8469998814480703E-2</v>
       </c>
       <c r="C7">
-        <v>6.0275477431510306E-3</v>
+        <v>6.0611664659246745E-3</v>
       </c>
       <c r="D7">
-        <v>6.6113938615677187E-2</v>
+        <v>6.6482689933544351E-2</v>
       </c>
       <c r="E7">
-        <v>8.1759779429895572E-3</v>
+        <v>8.2215795620196371E-3</v>
       </c>
       <c r="F7">
-        <v>0.10721718795407353</v>
+        <v>0.10781519315817888</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -911,22 +911,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.74614173892390367</v>
+        <v>0.75030335378613844</v>
       </c>
       <c r="J7">
-        <v>8.78411594739208E-3</v>
+        <v>8.3519908083323877E-4</v>
       </c>
       <c r="K7">
-        <v>2.5135335649081609E-4</v>
+        <v>2.6731531838123119E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.3963604449690954E-2</v>
+        <v>1.4041486627803669E-2</v>
       </c>
       <c r="N7">
-        <v>3.5032704046784862E-3</v>
+        <v>3.5228099390886159E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.2151571872956387E-4</v>
+        <v>1.2219347416754463E-4</v>
       </c>
       <c r="R7">
-        <v>1.4431269156228068E-3</v>
+        <v>1.4511759740078913E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>3.5012530390901304E-2</v>
+        <v>3.5082036530503617E-2</v>
       </c>
       <c r="C8">
-        <v>2.4338496559288673E-3</v>
+        <v>2.4386812831225422E-3</v>
       </c>
       <c r="D8">
-        <v>4.468400680344857E-2</v>
+        <v>4.4772712554795195E-2</v>
       </c>
       <c r="E8">
-        <v>8.4079023972782139E-3</v>
+        <v>8.4245935884393001E-3</v>
       </c>
       <c r="F8">
-        <v>0.12672883171548269</v>
+        <v>0.12698041112921005</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,22 +967,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.77194324526869817</v>
+        <v>0.77347569077811085</v>
       </c>
       <c r="J8">
-        <v>2.985056087908119E-3</v>
+        <v>1.32821443395347E-4</v>
       </c>
       <c r="K8">
-        <v>3.2111959293095526E-5</v>
+        <v>9.0515723573807692E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.9858942758866801E-3</v>
+        <v>5.9977773474196245E-3</v>
       </c>
       <c r="N8">
-        <v>1.369080842054713E-3</v>
+        <v>1.3717987125734185E-3</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.4174882268754267E-5</v>
+        <v>1.4203021947172781E-5</v>
       </c>
       <c r="R8">
-        <v>4.033157208508185E-4</v>
+        <v>4.0411637474484696E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2.1434310514586292E-2</v>
+        <v>2.143464910483496E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.113543378063096E-2</v>
+        <v>3.11359256161047E-2</v>
       </c>
       <c r="E9">
-        <v>8.4862436829288863E-3</v>
+        <v>8.486377737129366E-3</v>
       </c>
       <c r="F9">
-        <v>0.15853747734192908</v>
+        <v>0.15853998170258207</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.77957736986014414</v>
+        <v>0.77956174171901138</v>
       </c>
       <c r="J9">
-        <v>3.5563275967725497E-5</v>
+        <v>9.0599986772139366E-6</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3.8650041603422887E-5</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.3312326714760458E-4</v>
+        <v>6.3313326837271123E-4</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1.6047827666530842E-4</v>
+        <v>1.6048081168408429E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,19 +1258,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>4.2951029060746861E-3</v>
+        <v>4.2588227477608808E-3</v>
       </c>
       <c r="C3">
-        <v>7.1830597202286817E-3</v>
+        <v>7.2262560808488974E-3</v>
       </c>
       <c r="D3">
-        <v>3.4582880599827566E-2</v>
+        <v>3.4801112020564386E-2</v>
       </c>
       <c r="E3">
-        <v>5.0950393408013682E-4</v>
+        <v>5.0624202341584745E-4</v>
       </c>
       <c r="F3">
-        <v>1.6850979663111144E-2</v>
+        <v>1.7002593464143768E-2</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1279,34 +1279,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4.7531853402077801E-2</v>
+        <v>4.7243508515805728E-2</v>
       </c>
       <c r="J3">
-        <v>5.2057714914164499E-2</v>
+        <v>2.96612977475374E-2</v>
       </c>
       <c r="K3">
-        <v>9.7173372593530331E-4</v>
+        <v>6.5465230308432362E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.1336136223303312E-2</v>
+        <v>1.1408043514878652E-2</v>
       </c>
       <c r="N3">
-        <v>6.7371886466546915E-3</v>
+        <v>6.7870271568654375E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.8011948433390625E-4</v>
+        <v>1.8166717585110171E-4</v>
       </c>
       <c r="Q3">
-        <v>1.8341683156093957E-4</v>
+        <v>1.8484463584622057E-4</v>
       </c>
       <c r="R3">
-        <v>2.7742082115878096E-3</v>
+        <v>2.7947182775064547E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,19 +1314,19 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.364316791190113E-3</v>
+        <v>2.3210858248492163E-3</v>
       </c>
       <c r="C4">
-        <v>1.7707184669110072E-3</v>
+        <v>1.7530011511888962E-3</v>
       </c>
       <c r="D4">
-        <v>4.1363327187988103E-2</v>
+        <v>4.149337568228452E-2</v>
       </c>
       <c r="E4">
-        <v>2.946837960344363E-4</v>
+        <v>2.9044880126428079E-4</v>
       </c>
       <c r="F4">
-        <v>1.1379229218013254E-3</v>
+        <v>1.1193929106761301E-3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1335,34 +1335,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.3364081738499534E-2</v>
+        <v>2.2880078179901332E-2</v>
       </c>
       <c r="J4">
-        <v>7.3395296246257687E-3</v>
+        <v>9.0221836355588846E-3</v>
       </c>
       <c r="K4">
-        <v>1.3056981327135451E-3</v>
+        <v>1.3627109490360325E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.3666128458489175E-3</v>
+        <v>2.3245780289746889E-3</v>
       </c>
       <c r="N4">
-        <v>2.0379021468050159E-3</v>
+        <v>2.0343413531188309E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1.8350316564617845E-4</v>
+        <v>1.8417935681883113E-4</v>
       </c>
       <c r="Q4">
-        <v>3.9028601516393796E-5</v>
+        <v>3.8870326155301957E-5</v>
       </c>
       <c r="R4">
-        <v>5.9442887839478782E-4</v>
+        <v>5.9031496309311891E-4</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,19 +1370,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.1007791606387446E-3</v>
+        <v>2.1496645553913118E-3</v>
       </c>
       <c r="C5">
-        <v>4.4314856472968426E-3</v>
+        <v>4.5028670689656941E-3</v>
       </c>
       <c r="D5">
-        <v>3.5475585938842154E-2</v>
+        <v>3.6044317173246895E-2</v>
       </c>
       <c r="E5">
-        <v>4.3717573979317137E-4</v>
+        <v>4.4531262387618385E-4</v>
       </c>
       <c r="F5">
-        <v>1.2584703498831014E-2</v>
+        <v>1.2784691122440088E-2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1391,34 +1391,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.5449937718225945E-2</v>
+        <v>3.6266335355835205E-2</v>
       </c>
       <c r="J5">
-        <v>7.2786791021708999E-3</v>
+        <v>2.4894636843884963E-3</v>
       </c>
       <c r="K5">
-        <v>6.3556705132348037E-4</v>
+        <v>1.6988356362757019E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>7.2995801082303248E-3</v>
+        <v>7.4174393628298604E-3</v>
       </c>
       <c r="N5">
-        <v>1.2815006196108198E-3</v>
+        <v>1.3035197583809407E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>1.2343459556925666E-4</v>
+        <v>1.2538765557624913E-4</v>
       </c>
       <c r="Q5">
-        <v>3.515654222611185E-5</v>
+        <v>3.5747724482213867E-5</v>
       </c>
       <c r="R5">
-        <v>1.315832256399392E-3</v>
+        <v>1.3369404579473305E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,19 +1426,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.3984365363854408E-3</v>
+        <v>7.5072153001737281E-3</v>
       </c>
       <c r="C6">
-        <v>1.4887739189617541E-2</v>
+        <v>1.509378959123988E-2</v>
       </c>
       <c r="D6">
-        <v>2.4494645876114982E-2</v>
+        <v>2.4847477159085307E-2</v>
       </c>
       <c r="E6">
-        <v>4.9131347820255335E-4</v>
+        <v>5.0045610904516117E-4</v>
       </c>
       <c r="F6">
-        <v>3.9548102340544906E-2</v>
+        <v>4.0095986846051736E-2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1447,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.4595966604910178E-2</v>
+        <v>4.542925552181401E-2</v>
       </c>
       <c r="J6">
-        <v>1.9356492059310851E-2</v>
+        <v>6.8700280362184443E-3</v>
       </c>
       <c r="K6">
-        <v>2.0349691129752804E-3</v>
+        <v>5.8386391333743043E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.2555697160880048E-2</v>
+        <v>2.2868186943333441E-2</v>
       </c>
       <c r="N6">
-        <v>4.9996953633102328E-3</v>
+        <v>5.0690817075012291E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>1.015326304615095E-4</v>
+        <v>1.0293831088355898E-4</v>
       </c>
       <c r="Q6">
-        <v>4.9607258155313906E-5</v>
+        <v>5.0322414017348396E-5</v>
       </c>
       <c r="R6">
-        <v>3.5928639783291351E-3</v>
+        <v>3.642584405967232E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,19 +1482,19 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>8.3180835310366283E-3</v>
+        <v>8.3592292918491188E-3</v>
       </c>
       <c r="C7">
-        <v>3.686513337069171E-3</v>
+        <v>3.7067810191477165E-3</v>
       </c>
       <c r="D7">
-        <v>6.2173893765816966E-2</v>
+        <v>6.2518572955795187E-2</v>
       </c>
       <c r="E7">
-        <v>3.7838174192790752E-4</v>
+        <v>3.7518708245883563E-4</v>
       </c>
       <c r="F7">
-        <v>2.1800898374329809E-2</v>
+        <v>2.1906763639051259E-2</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1503,22 +1503,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.9640544401761618E-2</v>
+        <v>2.9240406206065554E-2</v>
       </c>
       <c r="J7">
-        <v>4.6832228610134479E-3</v>
+        <v>5.6763872070407636E-4</v>
       </c>
       <c r="K7">
-        <v>1.6716518371182333E-4</v>
+        <v>1.376865735108201E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.1846896616995798E-3</v>
+        <v>6.2182446565363899E-3</v>
       </c>
       <c r="N7">
-        <v>1.4470035593984623E-3</v>
+        <v>1.4548212980035927E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.5735448877634356E-5</v>
+        <v>2.5861873465810448E-5</v>
       </c>
       <c r="R7">
-        <v>7.0660153493083146E-4</v>
+        <v>7.1045471834245617E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,19 +1538,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.0606317671467877E-3</v>
+        <v>1.0662036474888646E-3</v>
       </c>
       <c r="C8">
-        <v>6.2757111808056567E-4</v>
+        <v>6.2884531284571499E-4</v>
       </c>
       <c r="D8">
-        <v>1.048936536280458E-2</v>
+        <v>1.0510760424029998E-2</v>
       </c>
       <c r="E8">
-        <v>3.0389182428593701E-4</v>
+        <v>3.0519310304811414E-4</v>
       </c>
       <c r="F8">
-        <v>7.2159831623878025E-3</v>
+        <v>7.2369908616331281E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,22 +1559,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.0434447892462029E-2</v>
+        <v>2.0562427286664062E-2</v>
       </c>
       <c r="J8">
-        <v>1.0533203778333154E-3</v>
+        <v>1.0228785343871113E-4</v>
       </c>
       <c r="K8">
-        <v>1.4375623353112912E-5</v>
+        <v>2.9516102879097183E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.5895063406632301E-3</v>
+        <v>1.5927295098981571E-3</v>
       </c>
       <c r="N8">
-        <v>4.5965684450020167E-4</v>
+        <v>4.6058159500625591E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.8363052853369152E-5</v>
+        <v>2.8419379870391412E-5</v>
       </c>
       <c r="R8">
-        <v>1.3813693129350856E-4</v>
+        <v>1.3841469511941527E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.8686595242266306E-3</v>
+        <v>1.8686969802021603E-3</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.9423633422180256E-3</v>
+        <v>5.942462478377028E-3</v>
       </c>
       <c r="E9">
-        <v>5.3918850725683204E-4</v>
+        <v>5.3920133664042951E-4</v>
       </c>
       <c r="F9">
-        <v>8.5143752211661317E-3</v>
+        <v>8.5146050213254602E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>4.0179871703887364E-2</v>
+        <v>4.0166138676188144E-2</v>
       </c>
       <c r="J9">
-        <v>7.2895756377402891E-6</v>
+        <v>6.7333323992943658E-6</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>9.0454217099302147E-6</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.2896422028955027E-5</v>
+        <v>4.2897401327808164E-5</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>3.211669814066993E-4</v>
+        <v>3.2117205735707655E-4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
